--- a/Vocabularies/TX/tx-ceq-t&d.xlsx
+++ b/Vocabularies/TX/tx-ceq-t&d.xlsx
@@ -1,37 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10123"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/augustus/Desktop/WSWC/IoW/Vocabularies/TX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph/Desktop/WSWC/IoW/Vocabularies/TX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2A0D285-F60A-E940-9936-0A110E33D306}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22726C91-2149-4747-B2C9-0CC9FDF67A84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
+    <workbookView xWindow="-35360" yWindow="460" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
     <sheet name="Vocabulary Metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="309">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="375">
   <si>
     <t>Term</t>
   </si>
@@ -132,12 +127,6 @@
     <t>Utilities</t>
   </si>
   <si>
-    <t>administrative order (AO)</t>
-  </si>
-  <si>
-    <t>agreed administrative order (AAO)</t>
-  </si>
-  <si>
     <t>backfill</t>
   </si>
   <si>
@@ -174,25 +163,6 @@
     <t>comment period</t>
   </si>
   <si>
-    <t>community relations plan (CRP)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Comprehensive Environmental Response, Compensation and Liability Act (CERCLA)
-US Code, 42 USC 9602 et seq </t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Comprehensive Environmental Response, Compensation and Liability Information System (CERCLIS) 
-EPA's Superfund web page </t>
-  </si>
-  <si>
-    <t>cone penetrometer technology (CPT)</t>
-  </si>
-  <si>
-    <t>contract laboratory program (CLP)</t>
-  </si>
-  <si>
     <t>creosotes</t>
   </si>
   <si>
@@ -211,12 +181,6 @@
     <t>ecological services</t>
   </si>
   <si>
-    <t>enforcement screening committee (ESC)</t>
-  </si>
-  <si>
-    <t>Environmental Protection Agency (EPA)</t>
-  </si>
-  <si>
     <t>epidemiological</t>
   </si>
   <si>
@@ -229,30 +193,15 @@
     <t>evaporation pond</t>
   </si>
   <si>
-    <t>expanded site investigation (ESI)</t>
-  </si>
-  <si>
     <t>feasibility study</t>
   </si>
   <si>
-    <t>final administrative order (FAO)</t>
-  </si>
-  <si>
-    <t>geographic information system (GIS)</t>
-  </si>
-  <si>
-    <t>global positioning system (GPS)</t>
-  </si>
-  <si>
     <t>good faith offer</t>
   </si>
   <si>
     <t>groundwater</t>
   </si>
   <si>
-    <t>hazard ranking system (HRS)</t>
-  </si>
-  <si>
     <t>Hazardous &amp; Solid Waste Remediation Fee Account</t>
   </si>
   <si>
@@ -274,9 +223,6 @@
     <t>hydrocarbons</t>
   </si>
   <si>
-    <t>immediate removal (IR)</t>
-  </si>
-  <si>
     <t>impoundment</t>
   </si>
   <si>
@@ -292,9 +238,6 @@
     <t>in-situ biodegradation</t>
   </si>
   <si>
-    <t>integrated assessment (IA)</t>
-  </si>
-  <si>
     <t>invitation for bids</t>
   </si>
   <si>
@@ -316,38 +259,15 @@
     <t>migration</t>
   </si>
   <si>
-    <t>national contingency plan (NCP)</t>
-  </si>
-  <si>
-    <t>national priorities list (NPL)</t>
-  </si>
-  <si>
-    <t>Natural Resource Trustee Program (NRTP)</t>
-  </si>
-  <si>
     <t>no further action</t>
   </si>
   <si>
-    <t>no further remedial action planned (NFRAP)</t>
-  </si>
-  <si>
     <t>non-residential property</t>
   </si>
   <si>
-    <t>Oil Pollution Act of 1990 (OPA)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">
-Oil Spill Prevention &amp; Response Act of 1991 (OSPRA)
-EXIT to Texas Natural Resource Code, 30 TNRC 40</t>
-  </si>
-  <si>
     <t>operable unit</t>
   </si>
   <si>
-    <t>operation and maintenance (O&amp;M)</t>
-  </si>
-  <si>
     <t>organic chemicals/compounds</t>
   </si>
   <si>
@@ -363,60 +283,21 @@
     <t>plume</t>
   </si>
   <si>
-    <t>pollution report (POLREP)</t>
-  </si>
-  <si>
-    <t>polychlorinated biphenyls (PCBs)</t>
-  </si>
-  <si>
-    <t>polycyclic (or polynuclear) aromatic hydrocarbons (PAHs)</t>
-  </si>
-  <si>
-    <t>potentially responsible party (PRP)</t>
-  </si>
-  <si>
-    <t>preliminary assessment (PA)</t>
-  </si>
-  <si>
     <t>pre-CERCLIS inspection</t>
   </si>
   <si>
-    <t>preliminary assessment/site investigation (PA/SI)</t>
-  </si>
-  <si>
     <t>presumptive remedy</t>
   </si>
   <si>
-    <t>probable point of entry (PPE)</t>
-  </si>
-  <si>
     <t>proposed facility</t>
   </si>
   <si>
-    <t>proposed remedial action document (PRAD)</t>
-  </si>
-  <si>
-    <t>quality assurance project plan (QAPP)</t>
-  </si>
-  <si>
-    <t>quality assurance/quality control (QA/QC)</t>
-  </si>
-  <si>
     <t>records repositories</t>
   </si>
   <si>
     <t>registry</t>
   </si>
   <si>
-    <t>remedial action (RA)</t>
-  </si>
-  <si>
-    <t>remedial design (RD)</t>
-  </si>
-  <si>
-    <t>remedial investigation (RI)</t>
-  </si>
-  <si>
     <t>Remediation Division</t>
   </si>
   <si>
@@ -426,15 +307,9 @@
     <t>repository</t>
   </si>
   <si>
-    <t>request for proposals (RFP)</t>
-  </si>
-  <si>
     <t>residential property</t>
   </si>
   <si>
-    <t>Resource Conservation and Recovery Act of 1976 (RCRA)</t>
-  </si>
-  <si>
     <t>responsiveness summary</t>
   </si>
   <si>
@@ -450,30 +325,15 @@
     <t>runoff</t>
   </si>
   <si>
-    <t>scope of work (SOW)</t>
-  </si>
-  <si>
-    <t>screening site inspection (SSI)</t>
-  </si>
-  <si>
     <t>sediment</t>
   </si>
   <si>
-    <t>site inspection prioritization (SIP)</t>
-  </si>
-  <si>
-    <t>site investigation (SI)</t>
-  </si>
-  <si>
     <t>sludge</t>
   </si>
   <si>
     <t>slurry wall</t>
   </si>
   <si>
-    <t>Solid Waste Disposal Act (SWDA)</t>
-  </si>
-  <si>
     <t>stabilization</t>
   </si>
   <si>
@@ -486,67 +346,19 @@
     <t>Superfund</t>
   </si>
   <si>
-    <t>Superfund Amendments and Reauthorization Act (SARA) of 1986</t>
-  </si>
-  <si>
-    <t>Superfund chemical data matrix (SCDM)</t>
-  </si>
-  <si>
-    <t>Superfund Site Discovery &amp; Assessment Program (SSDAP)</t>
-  </si>
-  <si>
     <t>Superfund site land use</t>
   </si>
   <si>
     <t>surface water</t>
   </si>
   <si>
-    <t>target distance limit (TDL)</t>
-  </si>
-  <si>
-    <t>technical assistance team (TAT)</t>
-  </si>
-  <si>
-    <t>Texas Air Control Board (TACB)</t>
-  </si>
-  <si>
-    <t>Texas Facilities Commission (TBPC)</t>
-  </si>
-  <si>
-    <t>Texas Commission on Environmental Quality (TCEQ)</t>
-  </si>
-  <si>
-    <t>Texas Department of Health (TDH)</t>
-  </si>
-  <si>
-    <t>Texas Department of Water Resources (TDWR)</t>
-  </si>
-  <si>
-    <t>Texas Natural Resource Conservation Commission (TNRCC)</t>
-  </si>
-  <si>
     <t>toll-free telephone number</t>
   </si>
   <si>
     <t>treatability study</t>
   </si>
   <si>
-    <t>Texas Water Commission (TWC)</t>
-  </si>
-  <si>
-    <t>Texas Water Quality Board (TWQB)</t>
-  </si>
-  <si>
-    <t>unilateral administrative order (UAO)</t>
-  </si>
-  <si>
     <t>vadose zone</t>
-  </si>
-  <si>
-    <t>volatile organic compounds (VOCs)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Voluntary Cleanup Program (VCP) </t>
   </si>
   <si>
     <t>X-ray fluorescence</t>
@@ -970,6 +782,387 @@
   </si>
   <si>
     <t>portable soil screening tool used for in-situ inorganic analyses during site assessment/investigation activities. The TCEQ Superfund Site Discovery &amp; Assessment Program currently maintains and uses an XRF for site assessment activities.</t>
+  </si>
+  <si>
+    <t>dense nonaqueous phase liquids</t>
+  </si>
+  <si>
+    <t>AO</t>
+  </si>
+  <si>
+    <t>administrative order</t>
+  </si>
+  <si>
+    <t>agreed administrative order</t>
+  </si>
+  <si>
+    <t>AAO</t>
+  </si>
+  <si>
+    <t>community relations plan</t>
+  </si>
+  <si>
+    <t>CRP</t>
+  </si>
+  <si>
+    <t>CERCLA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Comprehensive Environmental Response, Compensation and Liability Act
+US Code, 42 USC 9602 et seq </t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Comprehensive Environmental Response, Compensation and Liability Information System
+EPA's Superfund web page </t>
+  </si>
+  <si>
+    <t>CERCLIS</t>
+  </si>
+  <si>
+    <t>cone penetrometer technology</t>
+  </si>
+  <si>
+    <t>CPT</t>
+  </si>
+  <si>
+    <t>contract laboratory program</t>
+  </si>
+  <si>
+    <t>CLP</t>
+  </si>
+  <si>
+    <t>enforcement screening committee</t>
+  </si>
+  <si>
+    <t>ESC</t>
+  </si>
+  <si>
+    <t>Environmental Protection Agency</t>
+  </si>
+  <si>
+    <t>EPA</t>
+  </si>
+  <si>
+    <t>expanded site investigation</t>
+  </si>
+  <si>
+    <t>ESI</t>
+  </si>
+  <si>
+    <t>final administrative order</t>
+  </si>
+  <si>
+    <t>FAO</t>
+  </si>
+  <si>
+    <t>geographic information system</t>
+  </si>
+  <si>
+    <t>GIS</t>
+  </si>
+  <si>
+    <t>global positioning system</t>
+  </si>
+  <si>
+    <t>GPS</t>
+  </si>
+  <si>
+    <t>hazard ranking system</t>
+  </si>
+  <si>
+    <t>HRS</t>
+  </si>
+  <si>
+    <t>immediate removal</t>
+  </si>
+  <si>
+    <t>IR</t>
+  </si>
+  <si>
+    <t>integrated assessment</t>
+  </si>
+  <si>
+    <t>IA</t>
+  </si>
+  <si>
+    <t>national contingency plan</t>
+  </si>
+  <si>
+    <t>NCP</t>
+  </si>
+  <si>
+    <t>national priorities list</t>
+  </si>
+  <si>
+    <t>NPL</t>
+  </si>
+  <si>
+    <t>Natural Resource Trustee Program</t>
+  </si>
+  <si>
+    <t>NRTP</t>
+  </si>
+  <si>
+    <t>no further remedial action planned</t>
+  </si>
+  <si>
+    <t>NFRAP</t>
+  </si>
+  <si>
+    <t>Oil Pollution Act of 1990</t>
+  </si>
+  <si>
+    <t>OPA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Oil Spill Prevention &amp; Response Act of 1991
+EXIT to Texas Natural Resource Code, 30 TNRC 40</t>
+  </si>
+  <si>
+    <t>OSPRA</t>
+  </si>
+  <si>
+    <t>operation and maintenance</t>
+  </si>
+  <si>
+    <t>O&amp;M</t>
+  </si>
+  <si>
+    <t>pollution report</t>
+  </si>
+  <si>
+    <t>POLREP</t>
+  </si>
+  <si>
+    <t>polychlorinated biphenyls</t>
+  </si>
+  <si>
+    <t>PCB</t>
+  </si>
+  <si>
+    <t>polycyclic (or polynuclear) aromatic hydrocarbons</t>
+  </si>
+  <si>
+    <t>PAH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">potentially responsible party </t>
+  </si>
+  <si>
+    <t>PRP</t>
+  </si>
+  <si>
+    <t>preliminary assessment</t>
+  </si>
+  <si>
+    <t>PA</t>
+  </si>
+  <si>
+    <t>preliminary assessment/site investigation</t>
+  </si>
+  <si>
+    <t>PA/SI</t>
+  </si>
+  <si>
+    <t xml:space="preserve">probable point of entry </t>
+  </si>
+  <si>
+    <t>PPE</t>
+  </si>
+  <si>
+    <t>proposed remedial action document</t>
+  </si>
+  <si>
+    <t>PRAD</t>
+  </si>
+  <si>
+    <t>quality assurance project plan</t>
+  </si>
+  <si>
+    <t>QAPP</t>
+  </si>
+  <si>
+    <t>quality assurance/quality control</t>
+  </si>
+  <si>
+    <t>QA/QC</t>
+  </si>
+  <si>
+    <t>remedial action</t>
+  </si>
+  <si>
+    <t>RA</t>
+  </si>
+  <si>
+    <t>remedial desigN</t>
+  </si>
+  <si>
+    <t>RD</t>
+  </si>
+  <si>
+    <t>remedial investigation</t>
+  </si>
+  <si>
+    <t>RI</t>
+  </si>
+  <si>
+    <t>request for proposals</t>
+  </si>
+  <si>
+    <t>RFP</t>
+  </si>
+  <si>
+    <t>Resource Conservation and Recovery Act of 1976</t>
+  </si>
+  <si>
+    <t>RCRA</t>
+  </si>
+  <si>
+    <t>scope of work</t>
+  </si>
+  <si>
+    <t>SOW</t>
+  </si>
+  <si>
+    <t>screening site inspection</t>
+  </si>
+  <si>
+    <t>SSI</t>
+  </si>
+  <si>
+    <t>site inspection prioritization</t>
+  </si>
+  <si>
+    <t>SIP</t>
+  </si>
+  <si>
+    <t>site investigation</t>
+  </si>
+  <si>
+    <t>SI</t>
+  </si>
+  <si>
+    <t>Solid Waste Disposal Act</t>
+  </si>
+  <si>
+    <t>SWDA</t>
+  </si>
+  <si>
+    <t>Superfund Amendments and Reauthorization Act of 1986</t>
+  </si>
+  <si>
+    <t>SARA</t>
+  </si>
+  <si>
+    <t>Superfund chemical data matrix</t>
+  </si>
+  <si>
+    <t>SCDM</t>
+  </si>
+  <si>
+    <t>Superfund Site Discovery &amp; Assessment Program</t>
+  </si>
+  <si>
+    <t>SSDAP</t>
+  </si>
+  <si>
+    <t>target distance limit</t>
+  </si>
+  <si>
+    <t>TDL</t>
+  </si>
+  <si>
+    <t>technical assistance team</t>
+  </si>
+  <si>
+    <t>TAT</t>
+  </si>
+  <si>
+    <t>Texas Air Control Board</t>
+  </si>
+  <si>
+    <t>TACB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas Facilities Commission </t>
+  </si>
+  <si>
+    <t>TBPC</t>
+  </si>
+  <si>
+    <t>Texas Commission on Environmental Quality</t>
+  </si>
+  <si>
+    <t>TCEQ</t>
+  </si>
+  <si>
+    <t>Texas Department of Health</t>
+  </si>
+  <si>
+    <t>TDH</t>
+  </si>
+  <si>
+    <t>Texas Department of Water Resources</t>
+  </si>
+  <si>
+    <t>TDWR</t>
+  </si>
+  <si>
+    <t>Texas Natural Resource Conservation Commission</t>
+  </si>
+  <si>
+    <t>TNRCC</t>
+  </si>
+  <si>
+    <t>Texas Water Commission</t>
+  </si>
+  <si>
+    <t>TWC</t>
+  </si>
+  <si>
+    <t>Texas Water Quality Board</t>
+  </si>
+  <si>
+    <t>TWQB</t>
+  </si>
+  <si>
+    <t>unilateral administrative order</t>
+  </si>
+  <si>
+    <t>UAO</t>
+  </si>
+  <si>
+    <t>volatile organic compounds</t>
+  </si>
+  <si>
+    <t>VOC</t>
+  </si>
+  <si>
+    <t>Voluntary Cleanup Program</t>
+  </si>
+  <si>
+    <t>VCP</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Texas Commission on Environmenal Quality </t>
+  </si>
+  <si>
+    <t>TX-CEQ</t>
+  </si>
+  <si>
+    <t>Definitions of terms used by Superfund</t>
+  </si>
+  <si>
+    <t>tx-ceq-t&amp;d</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terms and definitions used by the the EPA superfund in evaluating remedial projects. </t>
+  </si>
+  <si>
+    <t>https://www.tceq.texas.gov/remediation/superfund/glossary.html</t>
   </si>
 </sst>
 </file>
@@ -1032,12 +1225,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1354,17 +1551,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E542F74-ACD9-49CD-B312-AB6D05B8D550}">
   <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A139" sqref="A139"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="40.33203125" customWidth="1"/>
-    <col min="2" max="2" width="8.83203125" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="95.6640625" customWidth="1"/>
-    <col min="4" max="4" width="16.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.83203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -1398,10 +1596,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>252</v>
+      </c>
+      <c r="B2" t="s">
+        <v>251</v>
       </c>
       <c r="C2" t="s">
-        <v>172</v>
+        <v>113</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
@@ -1412,10 +1613,13 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>253</v>
+      </c>
+      <c r="B3" t="s">
+        <v>254</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>114</v>
       </c>
       <c r="D3" t="s">
         <v>25</v>
@@ -1423,1099 +1627,1697 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>115</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>116</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C6" t="s">
-        <v>176</v>
+        <v>117</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C7" t="s">
-        <v>177</v>
+        <v>118</v>
+      </c>
+      <c r="D7" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C8" t="s">
-        <v>178</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="D8" s="2"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C9" t="s">
-        <v>179</v>
+        <v>120</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C10" t="s">
-        <v>180</v>
+        <v>121</v>
+      </c>
+      <c r="D10" t="s">
+        <v>12</v>
+      </c>
+      <c r="E10" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
-        <v>181</v>
+        <v>122</v>
+      </c>
+      <c r="D11" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C12" t="s">
-        <v>182</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="D12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>183</v>
+        <v>124</v>
+      </c>
+      <c r="D13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C14" t="s">
-        <v>184</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="D14" s="2"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>185</v>
+        <v>126</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>255</v>
+      </c>
+      <c r="B16" t="s">
+        <v>256</v>
+      </c>
+      <c r="C16" t="s">
+        <v>127</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>258</v>
+      </c>
+      <c r="B17" t="s">
+        <v>257</v>
+      </c>
+      <c r="C17" t="s">
+        <v>128</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" t="s">
+        <v>21</v>
+      </c>
+      <c r="F17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="64" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>259</v>
+      </c>
+      <c r="B18" t="s">
+        <v>260</v>
+      </c>
+      <c r="C18" t="s">
+        <v>129</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>261</v>
+      </c>
+      <c r="B19" t="s">
+        <v>262</v>
+      </c>
+      <c r="C19" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>263</v>
+      </c>
+      <c r="B20" t="s">
+        <v>264</v>
+      </c>
+      <c r="C20" t="s">
+        <v>131</v>
+      </c>
+      <c r="D20" t="s">
+        <v>25</v>
+      </c>
+      <c r="E20" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>46</v>
+      </c>
+      <c r="C22" t="s">
+        <v>133</v>
+      </c>
+      <c r="D22" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>47</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C23" t="s">
+        <v>134</v>
+      </c>
+      <c r="D23" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>250</v>
+      </c>
+      <c r="B24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" t="s">
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>136</v>
+      </c>
+      <c r="D25" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>50</v>
+      </c>
+      <c r="C26" t="s">
+        <v>137</v>
+      </c>
+      <c r="D26" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>265</v>
+      </c>
+      <c r="B27" t="s">
+        <v>266</v>
+      </c>
+      <c r="C27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>267</v>
+      </c>
+      <c r="B28" t="s">
+        <v>268</v>
+      </c>
+      <c r="C28" t="s">
+        <v>139</v>
+      </c>
+      <c r="D28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" t="s">
+        <v>140</v>
+      </c>
+      <c r="D29" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" t="s">
+        <v>141</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" t="s">
+        <v>142</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>269</v>
+      </c>
+      <c r="B33" t="s">
+        <v>270</v>
+      </c>
+      <c r="C33" t="s">
+        <v>144</v>
+      </c>
+      <c r="D33" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s">
+        <v>145</v>
+      </c>
+      <c r="D34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>271</v>
+      </c>
+      <c r="B35" t="s">
+        <v>272</v>
+      </c>
+      <c r="C35" t="s">
+        <v>146</v>
+      </c>
+      <c r="D35" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>273</v>
+      </c>
+      <c r="B36" t="s">
+        <v>274</v>
+      </c>
+      <c r="C36" t="s">
+        <v>147</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>275</v>
+      </c>
+      <c r="B37" t="s">
+        <v>276</v>
+      </c>
+      <c r="C37" t="s">
+        <v>148</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="C39" t="s">
+        <v>150</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>277</v>
+      </c>
+      <c r="B40" t="s">
+        <v>278</v>
+      </c>
+      <c r="C40" t="s">
+        <v>151</v>
+      </c>
+      <c r="D40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s">
+        <v>152</v>
+      </c>
+      <c r="D41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" t="s">
+        <v>153</v>
+      </c>
+      <c r="D42" t="s">
+        <v>12</v>
+      </c>
+      <c r="E42" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" t="s">
+        <v>154</v>
+      </c>
+      <c r="D43" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="C44" t="s">
+        <v>155</v>
+      </c>
+      <c r="D44" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C45" t="s">
+        <v>156</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="C46" t="s">
+        <v>157</v>
+      </c>
+      <c r="D46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="C47" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>279</v>
+      </c>
+      <c r="B48" t="s">
+        <v>280</v>
+      </c>
+      <c r="C48" t="s">
+        <v>159</v>
+      </c>
+      <c r="D48" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>65</v>
+      </c>
+      <c r="C49" t="s">
+        <v>160</v>
+      </c>
+      <c r="D49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>66</v>
+      </c>
+      <c r="C50" t="s">
+        <v>161</v>
+      </c>
+      <c r="D50" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
+        <v>67</v>
+      </c>
+      <c r="C51" t="s">
+        <v>162</v>
+      </c>
+      <c r="D51" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>68</v>
+      </c>
+      <c r="C52" t="s">
+        <v>163</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53" t="s">
+        <v>69</v>
+      </c>
+      <c r="C53" t="s">
+        <v>164</v>
+      </c>
+      <c r="D53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" t="s">
+        <v>281</v>
+      </c>
+      <c r="B54" t="s">
+        <v>282</v>
+      </c>
+      <c r="C54" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="C55" t="s">
+        <v>166</v>
+      </c>
+      <c r="D55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56" t="s">
+        <v>167</v>
+      </c>
+      <c r="D56" t="s">
+        <v>16</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57" t="s">
+        <v>72</v>
+      </c>
+      <c r="C57" t="s">
+        <v>168</v>
+      </c>
+      <c r="D57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>73</v>
+      </c>
+      <c r="C58" t="s">
+        <v>169</v>
+      </c>
+      <c r="D58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>74</v>
+      </c>
+      <c r="C59" t="s">
+        <v>161</v>
+      </c>
+      <c r="D59" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
+        <v>75</v>
+      </c>
+      <c r="C60" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C61" t="s">
+        <v>171</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
+        <v>283</v>
+      </c>
+      <c r="B62" t="s">
+        <v>284</v>
+      </c>
+      <c r="C62" t="s">
+        <v>172</v>
+      </c>
+      <c r="D62" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
+        <v>285</v>
+      </c>
+      <c r="B63" t="s">
+        <v>286</v>
+      </c>
+      <c r="C63" t="s">
+        <v>173</v>
+      </c>
+      <c r="D63" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
+        <v>287</v>
+      </c>
+      <c r="B64" t="s">
+        <v>288</v>
+      </c>
+      <c r="C64" t="s">
+        <v>174</v>
+      </c>
+      <c r="D64" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
+        <v>77</v>
+      </c>
+      <c r="C65" t="s">
+        <v>175</v>
+      </c>
+      <c r="D65" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
+        <v>289</v>
+      </c>
+      <c r="B66" t="s">
+        <v>290</v>
+      </c>
+      <c r="C66" t="s">
+        <v>176</v>
+      </c>
+      <c r="D66" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
+        <v>78</v>
+      </c>
+      <c r="C67" t="s">
+        <v>177</v>
+      </c>
+      <c r="D67" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
+        <v>291</v>
+      </c>
+      <c r="B68" t="s">
+        <v>292</v>
+      </c>
+      <c r="C68" t="s">
+        <v>178</v>
+      </c>
+      <c r="D68" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="48" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="B69" t="s">
+        <v>294</v>
+      </c>
+      <c r="C69" t="s">
+        <v>179</v>
+      </c>
+      <c r="D69" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>79</v>
+      </c>
+      <c r="C70" t="s">
+        <v>180</v>
+      </c>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>295</v>
+      </c>
+      <c r="B71" t="s">
+        <v>296</v>
+      </c>
+      <c r="C71" t="s">
+        <v>181</v>
+      </c>
+      <c r="D71" s="2"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>80</v>
+      </c>
+      <c r="C72" t="s">
+        <v>182</v>
+      </c>
+      <c r="D72" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>81</v>
+      </c>
+      <c r="C73" t="s">
+        <v>183</v>
+      </c>
+      <c r="D73" s="2"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>82</v>
+      </c>
+      <c r="C74" t="s">
+        <v>184</v>
+      </c>
+      <c r="D74" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>83</v>
+      </c>
+      <c r="C75" t="s">
+        <v>185</v>
+      </c>
+      <c r="D75" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>84</v>
+      </c>
+      <c r="C76" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s">
+      <c r="D76" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>297</v>
+      </c>
+      <c r="B77" t="s">
+        <v>298</v>
+      </c>
+      <c r="C77" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
-        <v>49</v>
-      </c>
-      <c r="C18" t="s">
+      <c r="D77" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>299</v>
+      </c>
+      <c r="B78" t="s">
+        <v>300</v>
+      </c>
+      <c r="C78" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" t="s">
+      <c r="D78" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>301</v>
+      </c>
+      <c r="B79" t="s">
+        <v>302</v>
+      </c>
+      <c r="C79" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" t="s">
+      <c r="D79" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>303</v>
+      </c>
+      <c r="B80" t="s">
+        <v>304</v>
+      </c>
+      <c r="C80" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C21" t="s">
+      <c r="D80" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" t="s">
+        <v>305</v>
+      </c>
+      <c r="B81" t="s">
+        <v>306</v>
+      </c>
+      <c r="C81" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" t="s">
+      <c r="D81" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C82" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C23" t="s">
+      <c r="D82" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>307</v>
+      </c>
+      <c r="B83" t="s">
+        <v>308</v>
+      </c>
+      <c r="C83" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>55</v>
-      </c>
-      <c r="C24" t="s">
+      <c r="D83" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
+        <v>86</v>
+      </c>
+      <c r="C84" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" t="s">
+      <c r="D84" s="2"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>309</v>
+      </c>
+      <c r="B85" t="s">
+        <v>310</v>
+      </c>
+      <c r="C85" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>57</v>
-      </c>
-      <c r="C26" t="s">
+      <c r="D85" t="s">
+        <v>25</v>
+      </c>
+      <c r="E85" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>87</v>
+      </c>
+      <c r="C86" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>58</v>
-      </c>
-      <c r="C27" t="s">
+      <c r="D86" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>311</v>
+      </c>
+      <c r="B87" t="s">
+        <v>312</v>
+      </c>
+      <c r="C87" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
-        <v>59</v>
-      </c>
-      <c r="C28" t="s">
+      <c r="D87" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>313</v>
+      </c>
+      <c r="B88" t="s">
+        <v>314</v>
+      </c>
+      <c r="C88" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" t="s">
+      <c r="D88" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>315</v>
+      </c>
+      <c r="B89" t="s">
+        <v>316</v>
+      </c>
+      <c r="C89" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>61</v>
-      </c>
-      <c r="C30" t="s">
+      <c r="D89" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>88</v>
+      </c>
+      <c r="C90" t="s">
+        <v>161</v>
+      </c>
+      <c r="D90" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
         <v>200</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>62</v>
-      </c>
-      <c r="C31" t="s">
+      <c r="D91" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>317</v>
+      </c>
+      <c r="B92" t="s">
+        <v>318</v>
+      </c>
+      <c r="C92" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>63</v>
-      </c>
-      <c r="C32" t="s">
+      <c r="D92" t="s">
+        <v>25</v>
+      </c>
+      <c r="E92" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>319</v>
+      </c>
+      <c r="B93" t="s">
+        <v>320</v>
+      </c>
+      <c r="C93" t="s">
         <v>202</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C33" t="s">
+      <c r="D93" t="s">
+        <v>25</v>
+      </c>
+      <c r="E93" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>321</v>
+      </c>
+      <c r="B94" t="s">
+        <v>322</v>
+      </c>
+      <c r="C94" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" t="s">
+      <c r="D94" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>90</v>
+      </c>
+      <c r="C95" t="s">
         <v>204</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
-        <v>66</v>
-      </c>
-      <c r="C35" t="s">
+      <c r="D95" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>91</v>
+      </c>
+      <c r="C96" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
-        <v>67</v>
-      </c>
-      <c r="C36" t="s">
+      <c r="D96" s="2"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>92</v>
+      </c>
+      <c r="C97" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
-        <v>68</v>
-      </c>
-      <c r="C37" t="s">
+      <c r="D97" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>323</v>
+      </c>
+      <c r="B98" t="s">
+        <v>324</v>
+      </c>
+      <c r="C98" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
-        <v>69</v>
-      </c>
-      <c r="C38" t="s">
+      <c r="D98" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>93</v>
+      </c>
+      <c r="C99" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
-        <v>70</v>
-      </c>
-      <c r="C39" t="s">
+      <c r="D99" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>325</v>
+      </c>
+      <c r="B100" t="s">
+        <v>326</v>
+      </c>
+      <c r="C100" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
-        <v>71</v>
-      </c>
-      <c r="C40" t="s">
+      <c r="D100" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>94</v>
+      </c>
+      <c r="C101" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" t="s">
+      <c r="D101" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>95</v>
+      </c>
+      <c r="C102" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
-        <v>73</v>
-      </c>
-      <c r="C42" t="s">
+      <c r="D102" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>96</v>
+      </c>
+      <c r="C103" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
-        <v>74</v>
-      </c>
-      <c r="C43" t="s">
+      <c r="D103" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>97</v>
+      </c>
+      <c r="C104" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
-        <v>75</v>
-      </c>
-      <c r="C44" t="s">
+      <c r="D104" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>98</v>
+      </c>
+      <c r="C105" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
-        <v>76</v>
-      </c>
-      <c r="C45" t="s">
+      <c r="D105" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>327</v>
+      </c>
+      <c r="B106" t="s">
+        <v>328</v>
+      </c>
+      <c r="C106" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>77</v>
-      </c>
-      <c r="C46" t="s">
+      <c r="D106" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>329</v>
+      </c>
+      <c r="B107" t="s">
+        <v>330</v>
+      </c>
+      <c r="C107" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
-        <v>78</v>
-      </c>
-      <c r="C47" t="s">
+      <c r="D107" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>99</v>
+      </c>
+      <c r="C108" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
-        <v>79</v>
-      </c>
-      <c r="C48" t="s">
+      <c r="D108" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A109" t="s">
+        <v>331</v>
+      </c>
+      <c r="B109" t="s">
+        <v>332</v>
+      </c>
+      <c r="C109" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
-        <v>80</v>
-      </c>
-      <c r="C49" t="s">
+      <c r="D109" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A110" t="s">
+        <v>333</v>
+      </c>
+      <c r="B110" t="s">
+        <v>334</v>
+      </c>
+      <c r="C110" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
-        <v>81</v>
-      </c>
-      <c r="C50" t="s">
+      <c r="D110" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>100</v>
+      </c>
+      <c r="C111" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
-        <v>82</v>
-      </c>
-      <c r="C51" t="s">
+      <c r="D111" t="s">
+        <v>32</v>
+      </c>
+      <c r="E111" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>101</v>
+      </c>
+      <c r="C112" t="s">
         <v>221</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
-        <v>83</v>
-      </c>
-      <c r="C52" t="s">
+      <c r="D112" t="s">
+        <v>16</v>
+      </c>
+      <c r="E112" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>335</v>
+      </c>
+      <c r="B113" t="s">
+        <v>336</v>
+      </c>
+      <c r="C113" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
-        <v>84</v>
-      </c>
-      <c r="C53" t="s">
+      <c r="D113" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>102</v>
+      </c>
+      <c r="C114" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>85</v>
-      </c>
-      <c r="C54" t="s">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>103</v>
+      </c>
+      <c r="C115" t="s">
         <v>224</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>86</v>
-      </c>
-      <c r="C55" t="s">
+      <c r="D115" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>104</v>
+      </c>
+      <c r="C116" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
-        <v>87</v>
-      </c>
-      <c r="C56" t="s">
+      <c r="D116" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>105</v>
+      </c>
+      <c r="C117" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
-        <v>88</v>
-      </c>
-      <c r="C57" t="s">
+      <c r="D117" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>337</v>
+      </c>
+      <c r="B118" t="s">
+        <v>338</v>
+      </c>
+      <c r="C118" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
-        <v>89</v>
-      </c>
-      <c r="C58" t="s">
+      <c r="D118" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>339</v>
+      </c>
+      <c r="B119" t="s">
+        <v>340</v>
+      </c>
+      <c r="C119" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
-        <v>90</v>
-      </c>
-      <c r="C59" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
-        <v>91</v>
-      </c>
-      <c r="C60" t="s">
+      <c r="D119" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>341</v>
+      </c>
+      <c r="B120" t="s">
+        <v>342</v>
+      </c>
+      <c r="C120" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>92</v>
-      </c>
-      <c r="C61" t="s">
+      <c r="D120" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>106</v>
+      </c>
+      <c r="C121" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
-        <v>93</v>
-      </c>
-      <c r="C62" t="s">
+      <c r="D121" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>107</v>
+      </c>
+      <c r="C122" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
-        <v>94</v>
-      </c>
-      <c r="C63" t="s">
+      <c r="D122" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>343</v>
+      </c>
+      <c r="B123" t="s">
+        <v>344</v>
+      </c>
+      <c r="C123" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
-        <v>95</v>
-      </c>
-      <c r="C64" t="s">
+      <c r="D123" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>345</v>
+      </c>
+      <c r="B124" t="s">
+        <v>346</v>
+      </c>
+      <c r="C124" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
-        <v>96</v>
-      </c>
-      <c r="C65" t="s">
+      <c r="D124" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>347</v>
+      </c>
+      <c r="B125" t="s">
+        <v>348</v>
+      </c>
+      <c r="C125" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
-        <v>97</v>
-      </c>
-      <c r="C66" t="s">
+      <c r="D125" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>349</v>
+      </c>
+      <c r="B126" t="s">
+        <v>350</v>
+      </c>
+      <c r="C126" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
-        <v>98</v>
-      </c>
-      <c r="C67" t="s">
+      <c r="D126" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>351</v>
+      </c>
+      <c r="B127" t="s">
+        <v>352</v>
+      </c>
+      <c r="C127" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>99</v>
-      </c>
-      <c r="C68" t="s">
+      <c r="D127" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>353</v>
+      </c>
+      <c r="B128" t="s">
+        <v>354</v>
+      </c>
+      <c r="C128" t="s">
         <v>237</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
-        <v>100</v>
-      </c>
-      <c r="C69" t="s">
+      <c r="D128" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>355</v>
+      </c>
+      <c r="B129" t="s">
+        <v>356</v>
+      </c>
+      <c r="C129" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
-        <v>101</v>
-      </c>
-      <c r="C70" t="s">
+      <c r="D129" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>357</v>
+      </c>
+      <c r="B130" t="s">
+        <v>358</v>
+      </c>
+      <c r="C130" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
-        <v>102</v>
-      </c>
-      <c r="C71" t="s">
+      <c r="D130" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>108</v>
+      </c>
+      <c r="C131" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
-        <v>103</v>
-      </c>
-      <c r="C72" t="s">
+      <c r="D131" s="2"/>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>109</v>
+      </c>
+      <c r="C132" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
-        <v>104</v>
-      </c>
-      <c r="C73" t="s">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>359</v>
+      </c>
+      <c r="B133" t="s">
+        <v>360</v>
+      </c>
+      <c r="C133" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
-        <v>105</v>
-      </c>
-      <c r="C74" t="s">
+      <c r="D133" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>361</v>
+      </c>
+      <c r="B134" t="s">
+        <v>362</v>
+      </c>
+      <c r="C134" t="s">
         <v>243</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
-        <v>106</v>
-      </c>
-      <c r="C75" t="s">
+      <c r="D134" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>363</v>
+      </c>
+      <c r="B135" t="s">
+        <v>364</v>
+      </c>
+      <c r="C135" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
-        <v>107</v>
-      </c>
-      <c r="C76" t="s">
+      <c r="D135" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>110</v>
+      </c>
+      <c r="C136" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
-        <v>108</v>
-      </c>
-      <c r="C77" t="s">
+      <c r="D136" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>365</v>
+      </c>
+      <c r="B137" t="s">
+        <v>366</v>
+      </c>
+      <c r="C137" t="s">
         <v>246</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
-        <v>109</v>
-      </c>
-      <c r="C78" t="s">
+      <c r="D137" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>367</v>
+      </c>
+      <c r="B138" t="s">
+        <v>368</v>
+      </c>
+      <c r="C138" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
-        <v>110</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="D138" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>111</v>
+      </c>
+      <c r="C139" t="s">
+        <v>249</v>
+      </c>
+      <c r="D139" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>112</v>
+      </c>
+      <c r="C140" t="s">
         <v>248</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
-        <v>111</v>
-      </c>
-      <c r="C80" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>112</v>
-      </c>
-      <c r="C81" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
-        <v>113</v>
-      </c>
-      <c r="C82" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
-        <v>114</v>
-      </c>
-      <c r="C83" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>115</v>
-      </c>
-      <c r="C84" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
-        <v>116</v>
-      </c>
-      <c r="C85" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
-        <v>117</v>
-      </c>
-      <c r="C86" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" t="s">
-        <v>118</v>
-      </c>
-      <c r="C87" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" t="s">
-        <v>119</v>
-      </c>
-      <c r="C88" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" t="s">
-        <v>120</v>
-      </c>
-      <c r="C89" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
-        <v>121</v>
-      </c>
-      <c r="C90" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
-        <v>122</v>
-      </c>
-      <c r="C91" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
-        <v>123</v>
-      </c>
-      <c r="C92" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
-        <v>124</v>
-      </c>
-      <c r="C93" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>125</v>
-      </c>
-      <c r="C94" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>126</v>
-      </c>
-      <c r="C95" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>127</v>
-      </c>
-      <c r="C96" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" t="s">
-        <v>128</v>
-      </c>
-      <c r="C97" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>129</v>
-      </c>
-      <c r="C98" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" t="s">
-        <v>130</v>
-      </c>
-      <c r="C99" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" t="s">
-        <v>131</v>
-      </c>
-      <c r="C100" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" t="s">
-        <v>132</v>
-      </c>
-      <c r="C101" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" t="s">
-        <v>133</v>
-      </c>
-      <c r="C102" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" t="s">
-        <v>134</v>
-      </c>
-      <c r="C103" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" t="s">
-        <v>135</v>
-      </c>
-      <c r="C104" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" t="s">
-        <v>136</v>
-      </c>
-      <c r="C105" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" t="s">
-        <v>137</v>
-      </c>
-      <c r="C106" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" t="s">
-        <v>138</v>
-      </c>
-      <c r="C107" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" t="s">
-        <v>139</v>
-      </c>
-      <c r="C108" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" t="s">
-        <v>140</v>
-      </c>
-      <c r="C109" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" t="s">
-        <v>141</v>
-      </c>
-      <c r="C110" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" t="s">
-        <v>142</v>
-      </c>
-      <c r="C111" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" t="s">
-        <v>143</v>
-      </c>
-      <c r="C112" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" t="s">
-        <v>144</v>
-      </c>
-      <c r="C113" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" t="s">
-        <v>145</v>
-      </c>
-      <c r="C114" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" t="s">
-        <v>146</v>
-      </c>
-      <c r="C115" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" t="s">
-        <v>147</v>
-      </c>
-      <c r="C116" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" t="s">
-        <v>148</v>
-      </c>
-      <c r="C117" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" t="s">
-        <v>149</v>
-      </c>
-      <c r="C118" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" t="s">
-        <v>150</v>
-      </c>
-      <c r="C119" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" t="s">
-        <v>151</v>
-      </c>
-      <c r="C120" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" t="s">
-        <v>152</v>
-      </c>
-      <c r="C121" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" t="s">
-        <v>153</v>
-      </c>
-      <c r="C122" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" t="s">
-        <v>154</v>
-      </c>
-      <c r="C123" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" t="s">
-        <v>155</v>
-      </c>
-      <c r="C124" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" t="s">
-        <v>156</v>
-      </c>
-      <c r="C125" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" t="s">
-        <v>157</v>
-      </c>
-      <c r="C126" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" t="s">
-        <v>158</v>
-      </c>
-      <c r="C127" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" t="s">
-        <v>159</v>
-      </c>
-      <c r="C128" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A129" t="s">
-        <v>160</v>
-      </c>
-      <c r="C129" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A130" t="s">
-        <v>161</v>
-      </c>
-      <c r="C130" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A131" t="s">
-        <v>162</v>
-      </c>
-      <c r="C131" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A132" t="s">
-        <v>163</v>
-      </c>
-      <c r="C132" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A133" t="s">
-        <v>164</v>
-      </c>
-      <c r="C133" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A134" t="s">
-        <v>165</v>
-      </c>
-      <c r="C134" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A135" t="s">
-        <v>166</v>
-      </c>
-      <c r="C135" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A136" t="s">
-        <v>167</v>
-      </c>
-      <c r="C136" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A137" t="s">
-        <v>168</v>
-      </c>
-      <c r="C137" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A138" t="s">
-        <v>169</v>
-      </c>
-      <c r="C138" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A139" t="s">
-        <v>170</v>
-      </c>
-      <c r="C139" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A140" t="s">
-        <v>171</v>
-      </c>
-      <c r="C140" t="s">
-        <v>308</v>
+      <c r="D140" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -2539,8 +3341,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251B0935-F8C3-480F-B897-E642A4205A23}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16:E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2581,6 +3383,24 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B2" t="s">
+        <v>370</v>
+      </c>
+      <c r="C2" t="s">
+        <v>371</v>
+      </c>
+      <c r="D2" t="s">
+        <v>372</v>
+      </c>
+      <c r="E2" t="s">
+        <v>373</v>
+      </c>
+      <c r="F2" t="s">
+        <v>374</v>
+      </c>
       <c r="G2" t="s">
         <v>26</v>
       </c>

--- a/Vocabularies/TX/tx-ceq-t&d.xlsx
+++ b/Vocabularies/TX/tx-ceq-t&d.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joseph/Desktop/WSWC/IoW/Vocabularies/TX/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kso8/Box/Internet Of Water/GitHub/Glossary/Vocabularies/TX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22726C91-2149-4747-B2C9-0CC9FDF67A84}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009471D9-E871-7543-AA5E-63E606417C72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-35360" yWindow="460" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
+    <workbookView xWindow="1700" yWindow="500" windowWidth="33600" windowHeight="21000" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="535" uniqueCount="375">
   <si>
     <t>Term</t>
   </si>
@@ -1551,9 +1551,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E542F74-ACD9-49CD-B312-AB6D05B8D550}">
   <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A139" sqref="A139"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1632,7 +1632,9 @@
       <c r="C4" t="s">
         <v>115</v>
       </c>
-      <c r="D4" s="2"/>
+      <c r="D4" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
@@ -1680,7 +1682,9 @@
       <c r="C8" t="s">
         <v>119</v>
       </c>
-      <c r="D8" s="2"/>
+      <c r="D8" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
@@ -1728,7 +1732,9 @@
       <c r="C12" t="s">
         <v>123</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
@@ -1748,7 +1754,12 @@
       <c r="C14" t="s">
         <v>125</v>
       </c>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
@@ -2061,7 +2072,9 @@
       <c r="C38" t="s">
         <v>149</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
@@ -2095,7 +2108,9 @@
       <c r="C41" t="s">
         <v>152</v>
       </c>
-      <c r="D41" s="2"/>
+      <c r="D41" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
@@ -2229,6 +2244,9 @@
       <c r="D52" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
@@ -2237,7 +2255,9 @@
       <c r="C53" t="s">
         <v>164</v>
       </c>
-      <c r="D53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
@@ -2249,7 +2269,9 @@
       <c r="C54" t="s">
         <v>165</v>
       </c>
-      <c r="D54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -2258,7 +2280,9 @@
       <c r="C55" t="s">
         <v>166</v>
       </c>
-      <c r="D55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -2281,7 +2305,9 @@
       <c r="C57" t="s">
         <v>168</v>
       </c>
-      <c r="D57" s="2"/>
+      <c r="D57" s="2" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
@@ -2290,7 +2316,9 @@
       <c r="C58" t="s">
         <v>169</v>
       </c>
-      <c r="D58" s="2"/>
+      <c r="D58" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
@@ -2438,7 +2466,9 @@
       <c r="C70" t="s">
         <v>180</v>
       </c>
-      <c r="D70" s="2"/>
+      <c r="D70" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
@@ -2450,7 +2480,9 @@
       <c r="C71" t="s">
         <v>181</v>
       </c>
-      <c r="D71" s="2"/>
+      <c r="D71" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
@@ -2470,7 +2502,9 @@
       <c r="C73" t="s">
         <v>183</v>
       </c>
-      <c r="D73" s="2"/>
+      <c r="D73" s="2" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
@@ -2607,7 +2641,9 @@
       <c r="C84" t="s">
         <v>194</v>
       </c>
-      <c r="D84" s="2"/>
+      <c r="D84" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
@@ -2767,7 +2803,9 @@
       <c r="C96" t="s">
         <v>205</v>
       </c>
-      <c r="D96" s="2"/>
+      <c r="D96" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
@@ -3207,7 +3245,9 @@
       <c r="C131" t="s">
         <v>240</v>
       </c>
-      <c r="D131" s="2"/>
+      <c r="D131" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
@@ -3341,8 +3381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251B0935-F8C3-480F-B897-E642A4205A23}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16:E17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/Vocabularies/TX/tx-ceq-t&d.xlsx
+++ b/Vocabularies/TX/tx-ceq-t&d.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kso8/Box/Internet Of Water/GitHub/Glossary/Vocabularies/TX/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{009471D9-E871-7543-AA5E-63E606417C72}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A361C2-90C8-0040-A46C-CF6C03A1B567}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1700" yWindow="500" windowWidth="33600" windowHeight="21000" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
+    <workbookView xWindow="12180" yWindow="6080" windowWidth="33600" windowHeight="21000" activeTab="1" xr2:uid="{50A7F3F0-28DB-4FD5-8358-7DC84097337D}"/>
   </bookViews>
   <sheets>
     <sheet name="Vocabulary" sheetId="1" r:id="rId1"/>
@@ -1156,13 +1156,13 @@
     <t>Definitions of terms used by Superfund</t>
   </si>
   <si>
-    <t>tx-ceq-t&amp;d</t>
-  </si>
-  <si>
     <t xml:space="preserve">Terms and definitions used by the the EPA superfund in evaluating remedial projects. </t>
   </si>
   <si>
     <t>https://www.tceq.texas.gov/remediation/superfund/glossary.html</t>
+  </si>
+  <si>
+    <t>tx-ceq-td</t>
   </si>
 </sst>
 </file>
@@ -1551,7 +1551,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E542F74-ACD9-49CD-B312-AB6D05B8D550}">
   <dimension ref="A1:I140"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D131" sqref="D131"/>
     </sheetView>
@@ -3381,8 +3381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251B0935-F8C3-480F-B897-E642A4205A23}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3433,13 +3433,13 @@
         <v>371</v>
       </c>
       <c r="D2" t="s">
+        <v>374</v>
+      </c>
+      <c r="E2" t="s">
         <v>372</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>373</v>
-      </c>
-      <c r="F2" t="s">
-        <v>374</v>
       </c>
       <c r="G2" t="s">
         <v>26</v>
